--- a/FantaSoccer/xG/Ligue1/Angers_matches_2020_fixed.xlsx
+++ b/FantaSoccer/xG/Ligue1/Angers_matches_2020_fixed.xlsx
@@ -876,6 +876,18 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
+      <c r="D19">
+        <v>0.285307</v>
+      </c>
+      <c r="E19">
+        <v>0.413017</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -887,6 +899,18 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
+      <c r="D20">
+        <v>2.30803</v>
+      </c>
+      <c r="E20">
+        <v>0.689403</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -897,6 +921,18 @@
       </c>
       <c r="C21" t="s">
         <v>9</v>
+      </c>
+      <c r="D21">
+        <v>0.937183</v>
+      </c>
+      <c r="E21">
+        <v>1.48664</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
